--- a/task2/showAnnotation/corpus/spatial_synonym_data.xlsx
+++ b/task2/showAnnotation/corpus/spatial_synonym_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\grammar_programming\grammar_programming\task2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\grammar_programming\grammar_programming\task2\showAnnotation\corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A59E9C3-19D9-4476-8DE2-D112CF614D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB22F8D-A852-4F9D-93BC-482B0ECC9177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
   <si>
     <t>pair_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,6 +442,77 @@
   </si>
   <si>
     <t>王稼祥打开第二个箱子，里边还是书，不过下边有国民党法币500元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema2</t>
+  </si>
+  <si>
+    <t>上12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上21；上23；上11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下1；下5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,11 +841,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -784,7 +855,7 @@
     <col min="4" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,8 +868,14 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -811,8 +888,14 @@
       <c r="D2" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -825,8 +908,14 @@
       <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -839,8 +928,14 @@
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -853,8 +948,14 @@
       <c r="D5" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -867,8 +968,14 @@
       <c r="D6" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -881,8 +988,14 @@
       <c r="D7" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -895,8 +1008,14 @@
       <c r="D8" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -909,8 +1028,14 @@
       <c r="D9" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -923,8 +1048,14 @@
       <c r="D10" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -937,8 +1068,14 @@
       <c r="D11" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -951,8 +1088,14 @@
       <c r="D12" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="E12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -965,8 +1108,14 @@
       <c r="D13" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -979,8 +1128,14 @@
       <c r="D14" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="E14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -993,8 +1148,14 @@
       <c r="D15" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="E15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1007,8 +1168,14 @@
       <c r="D16" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1021,8 +1188,14 @@
       <c r="D17" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1035,8 +1208,14 @@
       <c r="D18" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="E18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1049,8 +1228,14 @@
       <c r="D19" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1063,8 +1248,14 @@
       <c r="D20" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="E20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1077,8 +1268,14 @@
       <c r="D21" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1091,8 +1288,14 @@
       <c r="D22" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1105,8 +1308,14 @@
       <c r="D23" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1119,8 +1328,14 @@
       <c r="D24" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1133,8 +1348,14 @@
       <c r="D25" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="E25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1147,8 +1368,14 @@
       <c r="D26" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1161,8 +1388,14 @@
       <c r="D27" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1175,8 +1408,14 @@
       <c r="D28" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1189,22 +1428,34 @@
       <c r="D29" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="E29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D30" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1217,8 +1468,14 @@
       <c r="D31" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1231,8 +1488,14 @@
       <c r="D32" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1245,8 +1508,14 @@
       <c r="D33" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1259,22 +1528,34 @@
       <c r="D34" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="D35" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1287,8 +1568,14 @@
       <c r="D36" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="E36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1301,8 +1588,14 @@
       <c r="D37" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="E37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1315,22 +1608,34 @@
       <c r="D38" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D39" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="E39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1343,8 +1648,14 @@
       <c r="D40" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="E40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1357,8 +1668,14 @@
       <c r="D41" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1371,8 +1688,14 @@
       <c r="D42" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="E42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1385,8 +1708,14 @@
       <c r="D43" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="E43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1399,8 +1728,14 @@
       <c r="D44" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1413,8 +1748,14 @@
       <c r="D45" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1427,8 +1768,14 @@
       <c r="D46" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="E46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1441,8 +1788,14 @@
       <c r="D47" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1455,8 +1808,14 @@
       <c r="D48" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1469,8 +1828,14 @@
       <c r="D49" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1483,8 +1848,14 @@
       <c r="D50" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1496,6 +1867,12 @@
       </c>
       <c r="D51" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/task2/showAnnotation/corpus/spatial_synonym_data.xlsx
+++ b/task2/showAnnotation/corpus/spatial_synonym_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\grammar_programming\grammar_programming\task2\showAnnotation\corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB22F8D-A852-4F9D-93BC-482B0ECC9177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4014011B-C1EA-498E-82A8-7A534A2FD298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -844,8 +844,8 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1326,7 +1326,7 @@
         <v>42</v>
       </c>
       <c r="D24" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>107</v>

--- a/task2/showAnnotation/corpus/spatial_synonym_data.xlsx
+++ b/task2/showAnnotation/corpus/spatial_synonym_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\grammar_programming\grammar_programming\task2\showAnnotation\corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4014011B-C1EA-498E-82A8-7A534A2FD298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFDC49E-A459-476F-8C48-EC58BFF6CD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -844,8 +844,8 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/task2/showAnnotation/corpus/spatial_synonym_data.xlsx
+++ b/task2/showAnnotation/corpus/spatial_synonym_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\grammar_programming\grammar_programming\task2\showAnnotation\corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFDC49E-A459-476F-8C48-EC58BFF6CD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219A9023-20D1-4685-BAC8-51843733D788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$51</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="123">
   <si>
     <t>pair_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -513,6 +513,10 @@
   </si>
   <si>
     <t>上24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上22；上24；上11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -841,11 +845,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -875,7 +880,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -895,7 +900,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -915,7 +920,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -935,7 +940,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -955,7 +960,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -975,7 +980,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -995,7 +1000,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1015,7 +1020,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1035,7 +1040,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1055,7 +1060,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1095,7 +1100,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1115,7 +1120,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1135,7 +1140,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1155,7 +1160,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1175,7 +1180,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1195,7 +1200,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1215,7 +1220,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1235,7 +1240,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1255,7 +1260,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1275,7 +1280,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1295,7 +1300,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1315,7 +1320,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1335,7 +1340,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1355,7 +1360,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1375,7 +1380,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1395,7 +1400,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1415,7 +1420,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1435,7 +1440,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1455,7 +1460,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1475,7 +1480,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1495,7 +1500,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1515,7 +1520,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1535,7 +1540,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1555,7 +1560,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1575,7 +1580,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1595,7 +1600,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1615,7 +1620,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1635,7 +1640,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1655,7 +1660,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1675,7 +1680,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1695,7 +1700,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1715,7 +1720,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1735,7 +1740,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1755,7 +1760,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1789,13 +1794,13 @@
         <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1815,7 +1820,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1835,7 +1840,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1855,7 +1860,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1876,7 +1881,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D51" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F51" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="下4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{90CD50E6-7C68-4420-97B8-4FADAD6427B9}">
